--- a/ig/ajout-scenario/StructureDefinition-ror-organization-creation-date.xlsx
+++ b/ig/ajout-scenario/StructureDefinition-ror-organization-creation-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T10:30:56+00:00</t>
+    <t>2024-02-09T11:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ajout-scenario/StructureDefinition-ror-organization-creation-date.xlsx
+++ b/ig/ajout-scenario/StructureDefinition-ror-organization-creation-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T11:12:27+00:00</t>
+    <t>2024-02-09T11:19:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
